--- a/Datos/BasesDatos/BaseDatosDianas_Fake.xlsx
+++ b/Datos/BasesDatos/BaseDatosDianas_Fake.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Programacion\Python\Mios\SeminarioDoctorado-ProgramacionAnalisisDatos\2019\ArchivosEjemplos\BasesDatosEjemplos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6386390C-B853-415B-B118-D2F697F16E9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984CB390-E226-4491-A920-BEBDA2D58B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2988" yWindow="1224" windowWidth="19536" windowHeight="11136" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="2940" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatosHorizontal" sheetId="1" r:id="rId1"/>
@@ -594,9 +594,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -684,7 +684,7 @@
         <v>21.90915442905678</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -728,7 +728,7 @@
         <v>22.12612439345542</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -772,7 +772,7 @@
         <v>22.07182666635876</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -816,7 +816,7 @@
         <v>22.151674069433351</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -860,7 +860,7 @@
         <v>21.755714166980852</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -904,7 +904,7 @@
         <v>22.110632854831561</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -948,7 +948,7 @@
         <v>21.769799411171771</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -992,7 +992,7 @@
         <v>22.30028738305132</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>22.13284428267913</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>21.9782966352162</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>21.936861357939449</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>22.047990239654581</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>22.110532739120838</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>22.428935617822209</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>22.01209248980058</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>18.1481219370989</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>18.1561185799243</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>17.735116395282301</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>16.997816747170241</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>17.969344174401051</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>17.967101849986751</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>18.219578623929049</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>18.20530057772373</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>18.215369705116249</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>17.050238926373499</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>17.945808094278728</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>18.034145773369062</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>17.659063281324631</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>17.996959544634681</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1969,13 +1969,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62:H91"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>21.572760780866311</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>21.83165052686876</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>21.788409556227531</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>22.458441602562988</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>22.107811664116159</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>22.23500024390006</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>21.824378421351931</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>21.802244190246071</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>21.872468997503141</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>21.969300960864611</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>21.513046484695789</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>22.27192677253452</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>22.000001952294319</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>22.154202347613879</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>22.29353560211468</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>18.014391177560459</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>18.30010976596521</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>17.977658771131811</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>17.809596208446191</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>17.442416284162949</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>17.988128928091921</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>18.013876656942511</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>18.157288929003101</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>18.2527368844714</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>17.670378315901178</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>17.972564213132799</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>17.943159220586281</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>18.37446387617911</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>18.41017062717814</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>18.105266548226329</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -3089,13 +3089,13 @@
         <v>33</v>
       </c>
       <c r="J32">
-        <v>40.906040706307927</v>
+        <v>18.906040706307898</v>
       </c>
       <c r="K32">
         <v>23.04900991493939</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>23.24979774881378</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>23.281647559638792</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>23.092658731424859</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>22.927019254687689</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>23.105765569379631</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>22.921988089188371</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>22.858166653887331</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>22.832338412015272</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>22.646438420528028</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>22.922340783181639</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>23.303027279197959</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>23.266194387526799</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>22.880438193458779</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>22.9560184222929</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>18.25389356755262</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>17.57435683465544</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>17.37520441927651</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>18.53777785571949</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>18.209224881683081</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>17.93152573254179</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>18.127049070132859</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>18.522543656541671</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>18.28144910138224</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>18.037447093915748</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>18.149227694677421</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>18.459528094895091</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>18.232224610021412</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>18.118956047606009</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>18.344850170315389</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>21.90915442905678</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>22.12612439345542</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>22.07182666635876</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>22.151674069433351</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>21.755714166980852</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>22.110632854831561</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>21.769799411171771</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>22.30028738305132</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>22.13284428267913</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>21.9782966352162</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>21.936861357939449</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>22.047990239654581</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>22.110532739120838</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>22.428935617822209</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>22.01209248980058</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>18.1481219370989</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>18.1561185799243</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>17.735116395282301</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>16.997816747170241</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>17.969344174401051</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>17.967101849986751</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>35</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>18.219578623929049</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>18.20530057772373</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>18.215369705116249</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>17.050238926373499</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>17.945808094278728</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>18.034145773369062</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>41</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>17.659063281324631</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>17.996959544634681</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>43</v>
       </c>
